--- a/통신규약.xlsx
+++ b/통신규약.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="내보내기 요약" sheetId="1" r:id="rId1"/>
     <sheet name="작성방법" sheetId="2" r:id="rId2"/>
     <sheet name="요청 목록" sheetId="3" r:id="rId3"/>
-    <sheet name="인증" sheetId="4" r:id="rId4"/>
-    <sheet name="노래 정보 찾기" sheetId="5" r:id="rId5"/>
-    <sheet name="노래 상세 정보보기" sheetId="6" r:id="rId6"/>
-    <sheet name="노래 정보 추가" sheetId="7" r:id="rId7"/>
+    <sheet name="노래 정보 찾기" sheetId="5" r:id="rId4"/>
+    <sheet name="노래 상세 정보보기" sheetId="6" r:id="rId5"/>
+    <sheet name="노래 정보 추가" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>이 문서는 Numbers에서 내보낸 문서입니다. 각 표가 Excel 워크시트로 변환되었습니다. 각 Numbers 시트에 있는 모든 다른 대상체는 개별 워크시트에 위치 지정되었습니다. Excel에서 공식 계산이 다를 수 있으니 유의하십시오.</t>
   </si>
@@ -547,6 +546,15 @@
     "introduction": "포장하지 않은 마음을 적어봤어요."
 }</t>
   </si>
+  <si>
+    <t>노래 상세 정보 보기</t>
+  </si>
+  <si>
+    <t>노래 추가 하기</t>
+  </si>
+  <si>
+    <t>/music/ID</t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +564,7 @@
     <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="65" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <name val="나눔고딕"/>
@@ -691,11 +699,6 @@
       <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Helvetica Neue"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3088,8 +3091,6 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
     </row>
     <row r="7" spans="2:4" ht="18.000000">
       <c r="B7" s="2" t="s">
@@ -3460,10 +3461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="18.000000" customHeight="1"/>
@@ -3502,100 +3503,76 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="20.750000" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="20.750000" customHeight="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="20.750000" customHeight="1">
       <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="26"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="20.750000" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="26"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="20.750000" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="26"/>
+    <row r="7" spans="1:7" ht="20.500000" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="20.750000" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="26"/>
+    <row r="8" spans="1:7" ht="20.250000" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="20.500000" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+    <row r="9" spans="1:7" ht="20.250000" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -3700,31 +3677,22 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="20.250000" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.250000" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.250000" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3740,213 +3708,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="20.000000" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" style="6" width="24.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="6" width="36.38000107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="6" width="35.75500107" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="6" width="19.62999916" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="44"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" ht="164.250000" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="44"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.250000" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B15:C15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1.00" right="1.00" top="1.00" bottom="1.00" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4182,14 +3943,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" showGridLines="0" zoomScale="190" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -4410,14 +4171,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" showGridLines="0" tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/통신규약.xlsx
+++ b/통신규약.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="내보내기 요약" sheetId="1" r:id="rId1"/>
     <sheet name="작성방법" sheetId="2" r:id="rId2"/>
     <sheet name="요청 목록" sheetId="3" r:id="rId3"/>
     <sheet name="노래 정보 찾기" sheetId="5" r:id="rId4"/>
-    <sheet name="노래 상세 정보보기" sheetId="6" r:id="rId5"/>
-    <sheet name="노래 정보 추가" sheetId="7" r:id="rId6"/>
+    <sheet name="노래 전체 리스트 보기" sheetId="4" r:id="rId5"/>
+    <sheet name="노래 상세 정보보기" sheetId="6" r:id="rId6"/>
+    <sheet name="노래 정보 추가" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>이 문서는 Numbers에서 내보낸 문서입니다. 각 표가 Excel 워크시트로 변환되었습니다. 각 Numbers 시트에 있는 모든 다른 대상체는 개별 워크시트에 위치 지정되었습니다. Excel에서 공식 계산이 다를 수 있으니 유의하십시오.</t>
   </si>
@@ -555,6 +556,406 @@
   <si>
     <t>/music/ID</t>
   </si>
+  <si>
+    <t>노래 전체 리스트 보기</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t>"id":0,</t>
+  </si>
+  <si>
+    <r>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"title":"예뻤어",</t>
+  </si>
+  <si>
+    <r>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"예뻤어"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"singer":"데이식스",</t>
+  </si>
+  <si>
+    <r>
+      <t>"singer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"데이식스"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"introduction":"타이틀 곡 '예뻤어'는 헤어진 연인에 대해 함께한 모든 순간에 넌 예뻤다고 회상하는 한 남자의 감성을 그려낸 곡. 팝적인 코드와 파워풀한 락 사운드가 결합된 트랙에 장면 장면을 연상시키는 가사와 멜로디가 만나 극적인 전개를 보여준다."</t>
+  </si>
+  <si>
+    <r>
+      <t>"introduction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"타이틀 곡 '예뻤어'는 헤어진 연인에 대해 함께한 모든 순간에 넌 예뻤다고 회상하는 한 남자의 감성을 그려낸 곡. 팝적인 코드와 파워풀한 락 사운드가 결합된 트랙에 장면 장면을 연상시키는 가사와 멜로디가 만나 극적인 전개를 보여준다."</t>
+    </r>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>"id":1,</t>
+  </si>
+  <si>
+    <r>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"title":"좋았는데",</t>
+  </si>
+  <si>
+    <r>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"좋았는데"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"singer":"더 로즈",</t>
+  </si>
+  <si>
+    <r>
+      <t>"singer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"더 로즈"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"introduction":"이번 타이틀곡 '좋았는데(Like We used to)'는 오래전 헤어진 소중한 사람들과 보냈던 아름다운 시간들을 지금은 좋았던 추억으로 남겨둘 수밖에 없는 현실의 쓸쓸함을 아련하게 나타내는 곡으로 올가을 일상에 지친 이들의 마음을 다독여 줄 수 있는 The Rose(더 로즈)만의 감성이 담긴 곡이다."</t>
+  </si>
+  <si>
+    <r>
+      <t>"introduction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"이번 타이틀곡 '좋았는데(Like We used to)'는 오래전 헤어진 소중한 사람들과 보냈던 아름다운 시간들을 지금은 좋았던 추억으로 남겨둘 수밖에 없는 현실의 쓸쓸함을 아련하게 나타내는 곡으로 올가을 일상에 지친 이들의 마음을 다독여 줄 수 있는 The Rose(더 로즈)만의 감성이 담긴 곡이다."</t>
+    </r>
+  </si>
+  <si>
+    <t>"id":2,</t>
+  </si>
+  <si>
+    <r>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"title":"yours",</t>
+  </si>
+  <si>
+    <r>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"yours"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"singer":"데이먼스이어",</t>
+  </si>
+  <si>
+    <r>
+      <t>"singer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"데이먼스이어"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"introduction":"포장하지 않은 마음을 적어봤어요."</t>
+  </si>
+  <si>
+    <r>
+      <t>"introduction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"포장하지 않은 마음을 적어봤어요."</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>[
+    { 
+      "id":0,
+      "title":"예뻤어",
+      "singer":"데이식스",
+      "introduction":"타이틀 곡 '예뻤어'는 헤어진 연인에 대해 함께한 모든 순간에 넌 예뻤다고 회상하는 한 남자의 감성을 그려낸 곡. 팝적인 코드와 파워풀한 락 사운드가 결합된 트랙에 장면 장면을 연상시키는 가사와 멜로디가 만나 극적인 전개를 보여준다."
+    },
+    { 
+        "id":1,
+        "title":"좋았는데",
+        "singer":"더 로즈",
+        "introduction":"이번 타이틀곡 '좋았는데(Like We used to)'는 오래전 헤어진 소중한 사람들과 보냈던 아름다운 시간들을 지금은 좋았던 추억으로 남겨둘 수밖에 없는 현실의 쓸쓸함을 아련하게 나타내는 곡으로 올가을 일상에 지친 이들의 마음을 다독여 줄 수 있는 The Rose(더 로즈)만의 감성이 담긴 곡이다."
+      },
+      { 
+        "id":2,
+        "title":"yours",
+        "singer":"데이먼스이어",
+        "introduction":"포장하지 않은 마음을 적어봤어요."
+    }
+]</t>
+  </si>
 </sst>
 </file>
 
@@ -564,7 +965,7 @@
     <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="65" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <name val="나눔고딕"/>
@@ -699,6 +1100,31 @@
       <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="Menlo"/>
+      <color rgb="FFD4D4D4"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="Menlo"/>
+      <color rgb="FF9CDCFE"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="Menlo"/>
+      <color rgb="FFB5CEA8"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="Menlo"/>
+      <color rgb="FFCE9178"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="나눔고딕"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1741,7 +2167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1933,6 +2359,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3463,8 +3916,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="18.000000" customHeight="1"/>
@@ -3714,8 +4167,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D16" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3859,46 +4312,46 @@
       <c r="A13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:5" ht="20.250000" customHeight="1">
       <c r="A14" s="61"/>
-      <c r="B14" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5" ht="20.250000" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:5" ht="20.250000" customHeight="1">
       <c r="A16" s="61"/>
-      <c r="B16" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:5" ht="20.250000" customHeight="1">
@@ -3950,8 +4403,243 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
+    <sheetView topLeftCell="A9" showGridLines="0" zoomScale="190" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="20.000000" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" style="6" width="22.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="6" width="30.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="6" width="20.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="6" width="29.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="16384" style="6" width="19.62999916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A5" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A9" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A12" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A13" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.250000" customHeight="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="1:5" ht="392.450000" customHeight="1">
+      <c r="A19" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="62"/>
+    </row>
+    <row r="41"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="1.00" right="1.00" top="1.00" bottom="1.00" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
     <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D15" sqref="C12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="20.000000" customHeight="1"/>
@@ -4171,7 +4859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4179,7 +4867,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.60000000" defaultRowHeight="20.000000" customHeight="1"/>
